--- a/Dashboard/media/out.xlsx
+++ b/Dashboard/media/out.xlsx
@@ -866,31 +866,17 @@
       <c r="C5" s="16" t="n">
         <v>1470</v>
       </c>
-      <c r="D5" s="16" t="n">
-        <v>82</v>
-      </c>
-      <c r="E5" s="16" t="n">
-        <v>290</v>
-      </c>
-      <c r="F5" s="16" t="n">
-        <v>262</v>
-      </c>
-      <c r="G5" s="16" t="n">
-        <v>425</v>
-      </c>
-      <c r="H5" s="16" t="n">
-        <v>384</v>
-      </c>
+      <c r="D5" s="16" t="n"/>
+      <c r="E5" s="16" t="n"/>
+      <c r="F5" s="16" t="n"/>
+      <c r="G5" s="16" t="n"/>
+      <c r="H5" s="16" t="n"/>
       <c r="I5" s="16" t="n"/>
       <c r="J5" s="16" t="n"/>
       <c r="K5" s="16" t="n"/>
       <c r="L5" s="16" t="n"/>
-      <c r="M5" s="16" t="n">
-        <v>99</v>
-      </c>
-      <c r="N5" s="16" t="n">
-        <v>99</v>
-      </c>
+      <c r="M5" s="16" t="n"/>
+      <c r="N5" s="16" t="n"/>
       <c r="O5" s="16" t="n"/>
       <c r="P5" s="16" t="n"/>
       <c r="Q5" s="16" t="n"/>
@@ -916,31 +902,17 @@
       <c r="C6" s="16" t="n">
         <v>1468</v>
       </c>
-      <c r="D6" s="16" t="n">
-        <v>90</v>
-      </c>
-      <c r="E6" s="16" t="n">
-        <v>281</v>
-      </c>
-      <c r="F6" s="16" t="n">
-        <v>252</v>
-      </c>
-      <c r="G6" s="16" t="n">
-        <v>471</v>
-      </c>
-      <c r="H6" s="16" t="n">
-        <v>378</v>
-      </c>
+      <c r="D6" s="16" t="n"/>
+      <c r="E6" s="16" t="n"/>
+      <c r="F6" s="16" t="n"/>
+      <c r="G6" s="16" t="n"/>
+      <c r="H6" s="16" t="n"/>
       <c r="I6" s="16" t="n"/>
       <c r="J6" s="16" t="n"/>
       <c r="K6" s="16" t="n"/>
       <c r="L6" s="16" t="n"/>
-      <c r="M6" s="16" t="n">
-        <v>93</v>
-      </c>
-      <c r="N6" s="16" t="n">
-        <v>93</v>
-      </c>
+      <c r="M6" s="16" t="n"/>
+      <c r="N6" s="16" t="n"/>
       <c r="O6" s="16" t="n"/>
       <c r="P6" s="16" t="n"/>
       <c r="Q6" s="16" t="n"/>
@@ -966,31 +938,17 @@
       <c r="C7" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="D7" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="16" t="n">
-        <v>60</v>
-      </c>
-      <c r="H7" s="16" t="n">
-        <v>135</v>
-      </c>
+      <c r="D7" s="16" t="n"/>
+      <c r="E7" s="16" t="n"/>
+      <c r="F7" s="16" t="n"/>
+      <c r="G7" s="16" t="n"/>
+      <c r="H7" s="16" t="n"/>
       <c r="I7" s="16" t="n"/>
       <c r="J7" s="16" t="n"/>
       <c r="K7" s="16" t="n"/>
       <c r="L7" s="16" t="n"/>
-      <c r="M7" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="N7" s="16" t="n">
-        <v>2</v>
-      </c>
+      <c r="M7" s="16" t="n"/>
+      <c r="N7" s="16" t="n"/>
       <c r="O7" s="16" t="n"/>
       <c r="P7" s="16" t="n"/>
       <c r="Q7" s="16" t="n"/>
@@ -1016,31 +974,17 @@
       <c r="C8" s="16" t="n">
         <v>257</v>
       </c>
-      <c r="D8" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="16" t="n">
-        <v>9</v>
-      </c>
-      <c r="F8" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="16" t="n">
-        <v>40</v>
-      </c>
-      <c r="H8" s="16" t="n">
-        <v>6</v>
-      </c>
+      <c r="D8" s="16" t="n"/>
+      <c r="E8" s="16" t="n"/>
+      <c r="F8" s="16" t="n"/>
+      <c r="G8" s="16" t="n"/>
+      <c r="H8" s="16" t="n"/>
       <c r="I8" s="16" t="n"/>
       <c r="J8" s="16" t="n"/>
       <c r="K8" s="16" t="n"/>
       <c r="L8" s="16" t="n"/>
-      <c r="M8" s="16" t="n">
-        <v>26</v>
-      </c>
-      <c r="N8" s="16" t="n">
-        <v>26</v>
-      </c>
+      <c r="M8" s="16" t="n"/>
+      <c r="N8" s="16" t="n"/>
       <c r="O8" s="16" t="n"/>
       <c r="P8" s="16" t="n"/>
       <c r="Q8" s="16" t="n"/>
@@ -1066,31 +1010,17 @@
       <c r="C9" s="16" t="n">
         <v>22</v>
       </c>
-      <c r="D9" s="16" t="n">
-        <v>40</v>
-      </c>
-      <c r="E9" s="16" t="n">
-        <v>119</v>
-      </c>
-      <c r="F9" s="16" t="n">
-        <v>18</v>
-      </c>
-      <c r="G9" s="16" t="n">
-        <v>46</v>
-      </c>
-      <c r="H9" s="16" t="n">
-        <v>74</v>
-      </c>
+      <c r="D9" s="16" t="n"/>
+      <c r="E9" s="16" t="n"/>
+      <c r="F9" s="16" t="n"/>
+      <c r="G9" s="16" t="n"/>
+      <c r="H9" s="16" t="n"/>
       <c r="I9" s="16" t="n"/>
       <c r="J9" s="16" t="n"/>
       <c r="K9" s="16" t="n"/>
       <c r="L9" s="16" t="n"/>
-      <c r="M9" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="16" t="n">
-        <v>0</v>
-      </c>
+      <c r="M9" s="16" t="n"/>
+      <c r="N9" s="16" t="n"/>
       <c r="O9" s="16" t="n"/>
       <c r="P9" s="16" t="n"/>
       <c r="Q9" s="16" t="n"/>
@@ -1116,31 +1046,17 @@
       <c r="C10" s="16" t="n">
         <v>93</v>
       </c>
-      <c r="D10" s="16" t="n">
-        <v>18</v>
-      </c>
-      <c r="E10" s="16" t="n">
-        <v>85</v>
-      </c>
-      <c r="F10" s="16" t="n">
-        <v>67</v>
-      </c>
-      <c r="G10" s="16" t="n">
-        <v>15</v>
-      </c>
-      <c r="H10" s="16" t="n">
-        <v>5</v>
-      </c>
+      <c r="D10" s="16" t="n"/>
+      <c r="E10" s="16" t="n"/>
+      <c r="F10" s="16" t="n"/>
+      <c r="G10" s="16" t="n"/>
+      <c r="H10" s="16" t="n"/>
       <c r="I10" s="16" t="n"/>
       <c r="J10" s="16" t="n"/>
       <c r="K10" s="16" t="n"/>
       <c r="L10" s="16" t="n"/>
-      <c r="M10" s="16" t="n">
-        <v>10</v>
-      </c>
-      <c r="N10" s="16" t="n">
-        <v>10</v>
-      </c>
+      <c r="M10" s="16" t="n"/>
+      <c r="N10" s="16" t="n"/>
       <c r="O10" s="16" t="n"/>
       <c r="P10" s="16" t="n"/>
       <c r="Q10" s="16" t="n"/>
@@ -1164,31 +1080,17 @@
       <c r="C11" s="16" t="n">
         <v>47</v>
       </c>
-      <c r="D11" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="E11" s="16" t="n">
-        <v>27</v>
-      </c>
-      <c r="F11" s="16" t="n">
-        <v>62</v>
-      </c>
-      <c r="G11" s="16" t="n">
-        <v>10</v>
-      </c>
-      <c r="H11" s="16" t="n">
-        <v>5</v>
-      </c>
+      <c r="D11" s="16" t="n"/>
+      <c r="E11" s="16" t="n"/>
+      <c r="F11" s="16" t="n"/>
+      <c r="G11" s="16" t="n"/>
+      <c r="H11" s="16" t="n"/>
       <c r="I11" s="16" t="n"/>
       <c r="J11" s="16" t="n"/>
       <c r="K11" s="16" t="n"/>
       <c r="L11" s="16" t="n"/>
-      <c r="M11" s="16" t="n">
-        <v>6</v>
-      </c>
-      <c r="N11" s="16" t="n">
-        <v>6</v>
-      </c>
+      <c r="M11" s="16" t="n"/>
+      <c r="N11" s="16" t="n"/>
       <c r="O11" s="16" t="n"/>
       <c r="P11" s="16" t="n"/>
       <c r="Q11" s="16" t="n"/>
@@ -1212,31 +1114,17 @@
       <c r="C12" s="16" t="n">
         <v>33</v>
       </c>
-      <c r="D12" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="F12" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="16" t="n">
-        <v>0</v>
-      </c>
+      <c r="D12" s="16" t="n"/>
+      <c r="E12" s="16" t="n"/>
+      <c r="F12" s="16" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="16" t="n"/>
       <c r="I12" s="16" t="n"/>
       <c r="J12" s="16" t="n"/>
       <c r="K12" s="16" t="n"/>
       <c r="L12" s="16" t="n"/>
-      <c r="M12" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="16" t="n">
-        <v>1</v>
-      </c>
+      <c r="M12" s="16" t="n"/>
+      <c r="N12" s="16" t="n"/>
       <c r="O12" s="16" t="n"/>
       <c r="P12" s="16" t="n"/>
       <c r="Q12" s="16" t="n"/>
@@ -1260,31 +1148,17 @@
       <c r="C13" s="16" t="n">
         <v>13</v>
       </c>
-      <c r="D13" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="E13" s="16" t="n">
-        <v>46</v>
-      </c>
-      <c r="F13" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="G13" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="H13" s="16" t="n">
-        <v>0</v>
-      </c>
+      <c r="D13" s="16" t="n"/>
+      <c r="E13" s="16" t="n"/>
+      <c r="F13" s="16" t="n"/>
+      <c r="G13" s="16" t="n"/>
+      <c r="H13" s="16" t="n"/>
       <c r="I13" s="16" t="n"/>
       <c r="J13" s="16" t="n"/>
       <c r="K13" s="16" t="n"/>
       <c r="L13" s="16" t="n"/>
-      <c r="M13" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="N13" s="16" t="n">
-        <v>3</v>
-      </c>
+      <c r="M13" s="16" t="n"/>
+      <c r="N13" s="16" t="n"/>
       <c r="O13" s="16" t="n"/>
       <c r="P13" s="16" t="n"/>
       <c r="Q13" s="16" t="n"/>
@@ -1310,31 +1184,17 @@
       <c r="C14" s="16" t="n">
         <v>1137</v>
       </c>
-      <c r="D14" s="16" t="n">
-        <v>43</v>
-      </c>
-      <c r="E14" s="16" t="n">
-        <v>126</v>
-      </c>
-      <c r="F14" s="16" t="n">
-        <v>172</v>
-      </c>
-      <c r="G14" s="16" t="n">
-        <v>315</v>
-      </c>
-      <c r="H14" s="16" t="n">
-        <v>158</v>
-      </c>
+      <c r="D14" s="16" t="n"/>
+      <c r="E14" s="16" t="n"/>
+      <c r="F14" s="16" t="n"/>
+      <c r="G14" s="16" t="n"/>
+      <c r="H14" s="16" t="n"/>
       <c r="I14" s="16" t="n"/>
       <c r="J14" s="16" t="n"/>
       <c r="K14" s="16" t="n"/>
       <c r="L14" s="16" t="n"/>
-      <c r="M14" s="16" t="n">
-        <v>59</v>
-      </c>
-      <c r="N14" s="16" t="n">
-        <v>59</v>
-      </c>
+      <c r="M14" s="16" t="n"/>
+      <c r="N14" s="16" t="n"/>
       <c r="O14" s="16" t="n"/>
       <c r="P14" s="16" t="n"/>
       <c r="Q14" s="16" t="n"/>
@@ -1360,31 +1220,17 @@
       <c r="C15" s="12" t="n">
         <v>1410</v>
       </c>
-      <c r="D15" s="12" t="n">
-        <v>10</v>
-      </c>
-      <c r="E15" s="13" t="n">
-        <v>28</v>
-      </c>
-      <c r="F15" s="13" t="n">
-        <v>119</v>
-      </c>
-      <c r="G15" s="13" t="n">
-        <v>21</v>
-      </c>
-      <c r="H15" s="13" t="n">
-        <v>70</v>
-      </c>
+      <c r="D15" s="12" t="n"/>
+      <c r="E15" s="13" t="n"/>
+      <c r="F15" s="13" t="n"/>
+      <c r="G15" s="13" t="n"/>
+      <c r="H15" s="13" t="n"/>
       <c r="I15" s="13" t="n"/>
       <c r="J15" s="13" t="n"/>
       <c r="K15" s="13" t="n"/>
       <c r="L15" s="13" t="n"/>
-      <c r="M15" s="13" t="n">
-        <v>14</v>
-      </c>
-      <c r="N15" s="13" t="n">
-        <v>14</v>
-      </c>
+      <c r="M15" s="13" t="n"/>
+      <c r="N15" s="13" t="n"/>
       <c r="O15" s="13" t="n"/>
       <c r="P15" s="13" t="n"/>
       <c r="Q15" s="13" t="n"/>
@@ -1410,31 +1256,17 @@
       <c r="C16" s="12" t="n">
         <v>515</v>
       </c>
-      <c r="D16" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="E16" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="13" t="n">
-        <v>12</v>
-      </c>
-      <c r="G16" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="13" t="n">
-        <v>3</v>
-      </c>
+      <c r="D16" s="12" t="n"/>
+      <c r="E16" s="13" t="n"/>
+      <c r="F16" s="13" t="n"/>
+      <c r="G16" s="13" t="n"/>
+      <c r="H16" s="13" t="n"/>
       <c r="I16" s="13" t="n"/>
       <c r="J16" s="13" t="n"/>
       <c r="K16" s="13" t="n"/>
       <c r="L16" s="13" t="n"/>
-      <c r="M16" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="13" t="n">
-        <v>0</v>
-      </c>
+      <c r="M16" s="13" t="n"/>
+      <c r="N16" s="13" t="n"/>
       <c r="O16" s="13" t="n"/>
       <c r="P16" s="13" t="n"/>
       <c r="Q16" s="13" t="n"/>
@@ -1460,31 +1292,17 @@
       <c r="C17" s="12" t="n">
         <v>895</v>
       </c>
-      <c r="D17" s="12" t="n">
-        <v>8</v>
-      </c>
-      <c r="E17" s="12" t="n">
-        <v>28</v>
-      </c>
-      <c r="F17" s="12" t="n">
-        <v>107</v>
-      </c>
-      <c r="G17" s="12" t="n">
-        <v>21</v>
-      </c>
-      <c r="H17" s="12" t="n">
-        <v>67</v>
-      </c>
+      <c r="D17" s="12" t="n"/>
+      <c r="E17" s="12" t="n"/>
+      <c r="F17" s="12" t="n"/>
+      <c r="G17" s="12" t="n"/>
+      <c r="H17" s="12" t="n"/>
       <c r="I17" s="12" t="n"/>
       <c r="J17" s="12" t="n"/>
       <c r="K17" s="12" t="n"/>
       <c r="L17" s="12" t="n"/>
-      <c r="M17" s="12" t="n">
-        <v>14</v>
-      </c>
-      <c r="N17" s="12" t="n">
-        <v>14</v>
-      </c>
+      <c r="M17" s="12" t="n"/>
+      <c r="N17" s="12" t="n"/>
       <c r="O17" s="12" t="n"/>
       <c r="P17" s="12" t="n"/>
       <c r="Q17" s="12" t="n"/>
@@ -1511,31 +1329,17 @@
       <c r="C18" s="16" t="n">
         <v>242</v>
       </c>
-      <c r="D18" s="16" t="n">
-        <v>35</v>
-      </c>
-      <c r="E18" s="16" t="n">
-        <v>98</v>
-      </c>
-      <c r="F18" s="16" t="n">
-        <v>65</v>
-      </c>
-      <c r="G18" s="16" t="n">
-        <v>294</v>
-      </c>
-      <c r="H18" s="16" t="n">
-        <v>91</v>
-      </c>
+      <c r="D18" s="16" t="n"/>
+      <c r="E18" s="16" t="n"/>
+      <c r="F18" s="16" t="n"/>
+      <c r="G18" s="16" t="n"/>
+      <c r="H18" s="16" t="n"/>
       <c r="I18" s="16" t="n"/>
       <c r="J18" s="16" t="n"/>
       <c r="K18" s="16" t="n"/>
       <c r="L18" s="16" t="n"/>
-      <c r="M18" s="16" t="n">
-        <v>45</v>
-      </c>
-      <c r="N18" s="16" t="n">
-        <v>45</v>
-      </c>
+      <c r="M18" s="16" t="n"/>
+      <c r="N18" s="16" t="n"/>
       <c r="O18" s="16" t="n"/>
       <c r="P18" s="16" t="n"/>
       <c r="Q18" s="16" t="n"/>
@@ -1561,31 +1365,17 @@
       <c r="C19" s="16" t="n">
         <v>17.51</v>
       </c>
-      <c r="D19" s="16" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="E19" s="16" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="F19" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="16" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="H19" s="16" t="n">
-        <v>1.59</v>
-      </c>
+      <c r="D19" s="16" t="n"/>
+      <c r="E19" s="16" t="n"/>
+      <c r="F19" s="16" t="n"/>
+      <c r="G19" s="16" t="n"/>
+      <c r="H19" s="16" t="n"/>
       <c r="I19" s="16" t="n"/>
       <c r="J19" s="16" t="n"/>
       <c r="K19" s="16" t="n"/>
       <c r="L19" s="16" t="n"/>
-      <c r="M19" s="16" t="n">
-        <v>27.96</v>
-      </c>
-      <c r="N19" s="16" t="n">
-        <v>27.96</v>
-      </c>
+      <c r="M19" s="16" t="n"/>
+      <c r="N19" s="16" t="n"/>
       <c r="O19" s="16" t="n"/>
       <c r="P19" s="16" t="n"/>
       <c r="Q19" s="16" t="n"/>
@@ -1611,31 +1401,17 @@
       <c r="C20" s="16" t="n">
         <v>6.34</v>
       </c>
-      <c r="D20" s="16" t="n">
-        <v>20</v>
-      </c>
-      <c r="E20" s="16" t="n">
-        <v>30.25</v>
-      </c>
-      <c r="F20" s="16" t="n">
-        <v>26.59</v>
-      </c>
-      <c r="G20" s="16" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="H20" s="16" t="n">
-        <v>1.32</v>
-      </c>
+      <c r="D20" s="16" t="n"/>
+      <c r="E20" s="16" t="n"/>
+      <c r="F20" s="16" t="n"/>
+      <c r="G20" s="16" t="n"/>
+      <c r="H20" s="16" t="n"/>
       <c r="I20" s="16" t="n"/>
       <c r="J20" s="16" t="n"/>
       <c r="K20" s="16" t="n"/>
       <c r="L20" s="16" t="n"/>
-      <c r="M20" s="16" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="N20" s="16" t="n">
-        <v>10.75</v>
-      </c>
+      <c r="M20" s="16" t="n"/>
+      <c r="N20" s="16" t="n"/>
       <c r="O20" s="16" t="n"/>
       <c r="P20" s="16" t="n"/>
       <c r="Q20" s="16" t="n"/>
@@ -1661,31 +1437,17 @@
       <c r="C21" s="16" t="n">
         <v>77.45</v>
       </c>
-      <c r="D21" s="16" t="n">
-        <v>47.78</v>
-      </c>
-      <c r="E21" s="16" t="n">
-        <v>44.84</v>
-      </c>
-      <c r="F21" s="16" t="n">
-        <v>68.25</v>
-      </c>
-      <c r="G21" s="16" t="n">
-        <v>66.88</v>
-      </c>
-      <c r="H21" s="16" t="n">
-        <v>41.8</v>
-      </c>
+      <c r="D21" s="16" t="n"/>
+      <c r="E21" s="16" t="n"/>
+      <c r="F21" s="16" t="n"/>
+      <c r="G21" s="16" t="n"/>
+      <c r="H21" s="16" t="n"/>
       <c r="I21" s="16" t="n"/>
       <c r="J21" s="16" t="n"/>
       <c r="K21" s="16" t="n"/>
       <c r="L21" s="16" t="n"/>
-      <c r="M21" s="16" t="n">
-        <v>63.44</v>
-      </c>
-      <c r="N21" s="16" t="n">
-        <v>63.44</v>
-      </c>
+      <c r="M21" s="16" t="n"/>
+      <c r="N21" s="16" t="n"/>
       <c r="O21" s="16" t="n"/>
       <c r="P21" s="16" t="n"/>
       <c r="Q21" s="16" t="n"/>
@@ -1711,31 +1473,17 @@
       <c r="C22" s="16" t="n">
         <v>78.72</v>
       </c>
-      <c r="D22" s="16" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="E22" s="16" t="n">
-        <v>22.22</v>
-      </c>
-      <c r="F22" s="16" t="n">
-        <v>62.21</v>
-      </c>
-      <c r="G22" s="16" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="H22" s="16" t="n">
-        <v>42.41</v>
-      </c>
+      <c r="D22" s="16" t="n"/>
+      <c r="E22" s="16" t="n"/>
+      <c r="F22" s="16" t="n"/>
+      <c r="G22" s="16" t="n"/>
+      <c r="H22" s="16" t="n"/>
       <c r="I22" s="16" t="n"/>
       <c r="J22" s="16" t="n"/>
       <c r="K22" s="16" t="n"/>
       <c r="L22" s="16" t="n"/>
-      <c r="M22" s="16" t="n">
-        <v>23.73</v>
-      </c>
-      <c r="N22" s="16" t="n">
-        <v>23.73</v>
-      </c>
+      <c r="M22" s="16" t="n"/>
+      <c r="N22" s="16" t="n"/>
       <c r="O22" s="16" t="n"/>
       <c r="P22" s="16" t="n"/>
       <c r="Q22" s="16" t="n"/>
@@ -1761,31 +1509,17 @@
       <c r="C23" s="16" t="n">
         <v>21.28</v>
       </c>
-      <c r="D23" s="16" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="E23" s="16" t="n">
-        <v>77.78</v>
-      </c>
-      <c r="F23" s="16" t="n">
-        <v>37.79</v>
-      </c>
-      <c r="G23" s="16" t="n">
-        <v>93.33</v>
-      </c>
-      <c r="H23" s="16" t="n">
-        <v>57.59</v>
-      </c>
+      <c r="D23" s="16" t="n"/>
+      <c r="E23" s="16" t="n"/>
+      <c r="F23" s="16" t="n"/>
+      <c r="G23" s="16" t="n"/>
+      <c r="H23" s="16" t="n"/>
       <c r="I23" s="16" t="n"/>
       <c r="J23" s="16" t="n"/>
       <c r="K23" s="16" t="n"/>
       <c r="L23" s="16" t="n"/>
-      <c r="M23" s="16" t="n">
-        <v>76.27</v>
-      </c>
-      <c r="N23" s="16" t="n">
-        <v>76.27</v>
-      </c>
+      <c r="M23" s="16" t="n"/>
+      <c r="N23" s="16" t="n"/>
       <c r="O23" s="16" t="n"/>
       <c r="P23" s="16" t="n"/>
       <c r="Q23" s="16" t="n"/>
@@ -1809,17 +1543,17 @@
         </is>
       </c>
       <c r="C24" s="16" t="inlineStr"/>
-      <c r="D24" s="16" t="inlineStr"/>
-      <c r="E24" s="16" t="inlineStr"/>
-      <c r="F24" s="16" t="inlineStr"/>
-      <c r="G24" s="16" t="inlineStr"/>
-      <c r="H24" s="16" t="inlineStr"/>
+      <c r="D24" s="16" t="n"/>
+      <c r="E24" s="16" t="n"/>
+      <c r="F24" s="16" t="n"/>
+      <c r="G24" s="16" t="n"/>
+      <c r="H24" s="16" t="n"/>
       <c r="I24" s="16" t="n"/>
       <c r="J24" s="16" t="n"/>
       <c r="K24" s="16" t="n"/>
       <c r="L24" s="16" t="n"/>
-      <c r="M24" s="16" t="inlineStr"/>
-      <c r="N24" s="16" t="inlineStr"/>
+      <c r="M24" s="16" t="n"/>
+      <c r="N24" s="16" t="n"/>
       <c r="O24" s="16" t="n"/>
       <c r="P24" s="16" t="n"/>
       <c r="Q24" s="16" t="n"/>
@@ -1837,31 +1571,17 @@
       <c r="C25" s="16" t="n">
         <v>42</v>
       </c>
-      <c r="D25" s="16" t="n">
-        <v>8</v>
-      </c>
-      <c r="E25" s="16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="F25" s="16" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="G25" s="16" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="H25" s="16" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="D25" s="16" t="n"/>
+      <c r="E25" s="16" t="n"/>
+      <c r="F25" s="16" t="n"/>
+      <c r="G25" s="16" t="n"/>
+      <c r="H25" s="16" t="n"/>
       <c r="I25" s="16" t="n"/>
       <c r="J25" s="16" t="n"/>
       <c r="K25" s="16" t="n"/>
       <c r="L25" s="16" t="n"/>
-      <c r="M25" s="16" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="N25" s="16" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="M25" s="16" t="n"/>
+      <c r="N25" s="16" t="n"/>
       <c r="O25" s="16" t="n"/>
       <c r="P25" s="16" t="n"/>
       <c r="Q25" s="16" t="n"/>
@@ -1883,33 +1603,19 @@
         </is>
       </c>
       <c r="C26" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="D26" s="16" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="E26" s="16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="F26" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="G26" s="16" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="H26" s="16" t="n">
-        <v>1.65</v>
-      </c>
+        <v>4.45</v>
+      </c>
+      <c r="D26" s="16" t="n"/>
+      <c r="E26" s="16" t="n"/>
+      <c r="F26" s="16" t="n"/>
+      <c r="G26" s="16" t="n"/>
+      <c r="H26" s="16" t="n"/>
       <c r="I26" s="16" t="n"/>
       <c r="J26" s="16" t="n"/>
       <c r="K26" s="16" t="n"/>
       <c r="L26" s="16" t="n"/>
-      <c r="M26" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="N26" s="16" t="n">
-        <v>3</v>
-      </c>
+      <c r="M26" s="16" t="n"/>
+      <c r="N26" s="16" t="n"/>
       <c r="O26" s="16" t="n"/>
       <c r="P26" s="16" t="n"/>
       <c r="Q26" s="16" t="n"/>
@@ -1931,33 +1637,19 @@
         </is>
       </c>
       <c r="C27" s="16" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="D27" s="16" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="E27" s="16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="F27" s="16" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="G27" s="16" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="H27" s="16" t="n">
-        <v>3.5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D27" s="16" t="n"/>
+      <c r="E27" s="16" t="n"/>
+      <c r="F27" s="16" t="n"/>
+      <c r="G27" s="16" t="n"/>
+      <c r="H27" s="16" t="n"/>
       <c r="I27" s="16" t="n"/>
       <c r="J27" s="16" t="n"/>
       <c r="K27" s="16" t="n"/>
       <c r="L27" s="16" t="n"/>
-      <c r="M27" s="16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N27" s="16" t="n">
-        <v>3.75</v>
-      </c>
+      <c r="M27" s="16" t="n"/>
+      <c r="N27" s="16" t="n"/>
       <c r="O27" s="16" t="n"/>
       <c r="P27" s="16" t="n"/>
       <c r="Q27" s="16" t="n"/>

--- a/Dashboard/media/out.xlsx
+++ b/Dashboard/media/out.xlsx
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C5" s="25" t="n">
-        <v>22</v>
+        <v>100000</v>
       </c>
       <c r="D5" s="25" t="n">
         <v>82</v>
       </c>
       <c r="E5" s="25" t="n">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="F5" s="25" t="n">
         <v>6967</v>
@@ -1449,7 +1449,7 @@
         <v>90</v>
       </c>
       <c r="E6" s="25" t="n">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="F6" s="25" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="25" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="F7" s="25" t="n">
         <v>0</v>
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F8" s="25" t="n">
         <v>0</v>
@@ -1845,7 +1845,7 @@
         <v>40</v>
       </c>
       <c r="E9" s="25" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="F9" s="25" t="n">
         <v>10</v>
@@ -1977,7 +1977,7 @@
         <v>18</v>
       </c>
       <c r="E10" s="25" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F10" s="25" t="n">
         <v>0</v>
@@ -2107,7 +2107,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="25" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F11" s="25" t="n">
         <v>0</v>
@@ -2237,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F12" s="25" t="n">
         <v>0</v>
@@ -2367,7 +2367,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="25" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F13" s="25" t="n">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>45</v>
       </c>
       <c r="E14" s="25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F14" s="25" t="n">
         <v>-10</v>
@@ -2625,13 +2625,13 @@
         </is>
       </c>
       <c r="C15" s="27" t="n">
-        <v>2999</v>
+        <v>0</v>
       </c>
       <c r="D15" s="27" t="n">
         <v>10</v>
       </c>
       <c r="E15" s="28" t="n">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="F15" s="28" t="n">
         <v>0</v>
@@ -2889,13 +2889,13 @@
         </is>
       </c>
       <c r="C17" s="27" t="n">
-        <v>2999</v>
+        <v>0</v>
       </c>
       <c r="D17" s="27" t="n">
         <v>8</v>
       </c>
       <c r="E17" s="27" t="n">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="F17" s="27" t="n">
         <v>0</v>
@@ -3021,13 +3021,13 @@
         </is>
       </c>
       <c r="C18" s="25" t="n">
-        <v>-2999</v>
+        <v>0</v>
       </c>
       <c r="D18" s="25" t="n">
         <v>37</v>
       </c>
       <c r="E18" s="25" t="n">
-        <v>0</v>
+        <v>-286</v>
       </c>
       <c r="F18" s="25" t="n">
         <v>-10</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="25" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="F19" s="25" t="n">
         <v>0</v>
@@ -3291,7 +3291,7 @@
         <v>20</v>
       </c>
       <c r="E20" s="25" t="n">
-        <v>0</v>
+        <v>30.25</v>
       </c>
       <c r="F20" s="25" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         <v>50</v>
       </c>
       <c r="E21" s="25" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="F21" s="25" t="n">
         <v>0</v>
@@ -3555,7 +3555,7 @@
         <v>17.78</v>
       </c>
       <c r="E22" s="25" t="n">
-        <v>0</v>
+        <v>9633.33</v>
       </c>
       <c r="F22" s="25" t="n">
         <v>-0</v>
@@ -3687,7 +3687,7 @@
         <v>82.22</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>0</v>
+        <v>-9533.33</v>
       </c>
       <c r="F23" s="25" t="n">
         <v>100</v>
@@ -3859,13 +3859,13 @@
         </is>
       </c>
       <c r="C25" s="25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D25" s="25" t="n">
         <v>8</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>10</v>
+        <v>3.25</v>
       </c>
       <c r="F25" s="25" t="n">
         <v>32.2</v>
@@ -3989,13 +3989,13 @@
         </is>
       </c>
       <c r="C26" s="25" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="D26" s="25" t="n">
         <v>3.36</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>10.1</v>
+        <v>3.25</v>
       </c>
       <c r="F26" s="25" t="n">
         <v>12.2</v>
@@ -4119,13 +4119,13 @@
         </is>
       </c>
       <c r="C27" s="25" t="n">
-        <v>20.1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="25" t="n">
         <v>5.25</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>10.2</v>
+        <v>3.25</v>
       </c>
       <c r="F27" s="25" t="n">
         <v>3</v>

--- a/Dashboard/media/out.xlsx
+++ b/Dashboard/media/out.xlsx
@@ -2139,7 +2139,7 @@
         </is>
       </c>
       <c r="C25" s="16" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D25" s="16" t="n">
         <v>8</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="C26" s="16" t="n">
-        <v>1.2</v>
+        <v>10</v>
       </c>
       <c r="D26" s="16" t="n">
-        <v>3.36</v>
+        <v>5.25</v>
       </c>
       <c r="E26" s="16" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="F26" s="16" t="n">
-        <v>12.2</v>
+        <v>3</v>
       </c>
       <c r="G26" s="16" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="16" t="n">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="I26" s="16" t="n">
         <v>0</v>
@@ -2227,16 +2227,16 @@
         <v>0</v>
       </c>
       <c r="K26" s="16" t="n">
-        <v>98</v>
+        <v>798</v>
       </c>
       <c r="L26" s="16" t="n">
         <v>0</v>
       </c>
       <c r="M26" s="16" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N26" s="16" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="O26" s="16" t="n">
         <v>0</v>
@@ -2267,40 +2267,40 @@
         </is>
       </c>
       <c r="C27" s="16" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="D27" s="16" t="n">
-        <v>5.25</v>
+        <v>3.36</v>
       </c>
       <c r="E27" s="16" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="F27" s="16" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="G27" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="16" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I27" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="16" t="n">
+        <v>98</v>
+      </c>
+      <c r="L27" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="G27" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I27" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" s="16" t="n">
-        <v>798</v>
-      </c>
-      <c r="L27" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" s="16" t="n">
-        <v>3.75</v>
-      </c>
       <c r="N27" s="16" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="O27" s="16" t="n">
         <v>0</v>
